--- a/hardware/pcb/bom.xlsx
+++ b/hardware/pcb/bom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="6630"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="PRISON_GOD_SCH_V110" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="165">
   <si>
     <t>BBPrinsonGod-Alpha  Revised: Wednesday, January 04, 2017</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>YY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1447,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2077,6 +2089,9 @@
       <c r="E45" t="s">
         <v>66</v>
       </c>
+      <c r="H45" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
@@ -2094,6 +2109,9 @@
       <c r="E46" t="s">
         <v>66</v>
       </c>
+      <c r="H46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
@@ -2437,6 +2455,9 @@
       <c r="E63" t="s">
         <v>99</v>
       </c>
+      <c r="I63" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
@@ -2676,6 +2697,9 @@
       <c r="E76" t="s">
         <v>14</v>
       </c>
+      <c r="I76" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
@@ -2692,6 +2716,9 @@
       </c>
       <c r="E77" t="s">
         <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.15">
